--- a/admin/src/main/resources/static/excel/model.xlsx
+++ b/admin/src/main/resources/static/excel/model.xlsx
@@ -4,34 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="11760" windowHeight="5775"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5745"/>
   </bookViews>
   <sheets>
     <sheet name="商品信息" sheetId="1" r:id="rId1"/>
-    <sheet name="品牌" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="大类">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="30">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>使用本模板需要excel2007及以上版本，即以.xlsx结尾的excel文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品详情在导入功能中只能导入普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大类*(20个中文字以内)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文名(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号*(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品详情4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>括号表示该字段的长度，如商品名称的长度为40，则可输入40个英文字母或20个中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签*(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fjuge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HD-300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,37 +84,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加饭酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仪器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加饭酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法撒旦VGA北区AV挖vadsavsvavfeqbafsvas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈2</t>
-  </si>
-  <si>
-    <t>哈哈3</t>
+    <t>标签(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,8 +168,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,127 +493,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="19.625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.25" collapsed="true"/>
-    <col min="8" max="11" customWidth="true" width="24.125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="48.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.375" collapsed="true"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="48.5" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>123.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>123.2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -629,117 +610,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>